--- a/benchmarks/results/plots/results-TestsTargettingAndPlock.xlsx
+++ b/benchmarks/results/plots/results-TestsTargettingAndPlock.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K784"/>
+  <dimension ref="A1:K786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29462,6 +29462,80 @@
         <v>10.74890855774478</v>
       </c>
     </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=True_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C785" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D785" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E785" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F785" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G785" t="n">
+        <v>55.09627969011174</v>
+      </c>
+      <c r="H785" t="n">
+        <v>17522.81547866905</v>
+      </c>
+      <c r="I785" t="n">
+        <v>22.50469275633802</v>
+      </c>
+      <c r="J785" t="n">
+        <v>1.945714030607292</v>
+      </c>
+      <c r="K785" t="n">
+        <v>34.53730096438102</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=full_open_targetGroups=False_targetAct=False_targetTests=False_optimizeLockdowns=False</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>1859951.5</v>
+      </c>
+      <c r="C786" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D786" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E786" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F786" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G786" t="n">
+        <v>54.91789462453497</v>
+      </c>
+      <c r="H786" t="n">
+        <v>19011.35721968309</v>
+      </c>
+      <c r="I786" t="n">
+        <v>19.55769224674956</v>
+      </c>
+      <c r="J786" t="n">
+        <v>2.124099096184061</v>
+      </c>
+      <c r="K786" t="n">
+        <v>37.48430147396947</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
